--- a/assets/testfiles/BlockadeCheck1121.xlsx
+++ b/assets/testfiles/BlockadeCheck1121.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan.kellogg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phillip.Crandall\Projects\_Blockade checklist\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,17 +604,17 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -625,157 +625,157 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>100044851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>100058431</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>100003177</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>100053315</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>100006573</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>100046961</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>100067343</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>200027463</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>100003134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>100044851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -783,7 +783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -792,28 +792,28 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -830,28 +830,28 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -859,93 +859,93 @@
         <v>200011156</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -962,12 +962,12 @@
         <v>200002413</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -975,12 +975,12 @@
         <v>200001893</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -988,7 +988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -996,7 +996,7 @@
         <v>100063880</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1004,26 +1004,26 @@
         <v>200044804</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1031,12 +1031,12 @@
         <v>100050582</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -1054,61 +1054,61 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
